--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
@@ -17,7 +17,6 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
   <si>
     <t>Step No</t>
   </si>
@@ -538,6 +537,153 @@
     <t>No clicked</t>
   </si>
   <si>
+    <t>TRASH_PROVIDER_PAGE</t>
+  </si>
+  <si>
+    <t>Trash old provider</t>
+  </si>
+  <si>
+    <t>Trashed</t>
+  </si>
+  <si>
+    <t>SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Name tab</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADDRESS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Type address</t>
+  </si>
+  <si>
+    <t>Address entered</t>
+  </si>
+  <si>
+    <t>PROV_SUITE_NO</t>
+  </si>
+  <si>
+    <t>ADD_PROV_PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>ADD_PROV_CITY</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>PROV_EXT</t>
+  </si>
+  <si>
+    <t>PROV_FAX</t>
+  </si>
+  <si>
+    <t>PATIENT_EMAIL</t>
+  </si>
+  <si>
+    <t>@mail.in</t>
+  </si>
+  <si>
+    <t>PROV_CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>PROV_OFFICE_MAIL</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
     <t>PHYSICIAN_CHECKBOX</t>
   </si>
   <si>
@@ -697,181 +843,145 @@
     <t>Return home clicked</t>
   </si>
   <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
   </si>
   <si>
     <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
   </si>
   <si>
     <t>DismissAlert</t>
@@ -1047,10 +1157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1089,14 +1199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,98 +1214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1230,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,8 +1282,67 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,19 +1363,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1471,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,133 +1543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,26 +1553,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1501,17 +1605,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
@@ -1531,9 +1624,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1549,41 +1644,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,16 +1677,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1638,134 +1731,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1779,19 +1872,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1857,12 +1947,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
+      <sheetName val="Xpath"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1872,7 +1962,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Xpath"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
@@ -1921,29 +2011,14 @@
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2234,10 +2309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2321,20 +2396,20 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="10"/>
@@ -2343,20 +2418,20 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="12"/>
@@ -2365,38 +2440,38 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="12"/>
@@ -2405,22 +2480,22 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="10"/>
@@ -2429,20 +2504,20 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="12"/>
@@ -2451,54 +2526,54 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <v>4</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="10"/>
@@ -2507,18 +2582,18 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
         <v>4</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="12"/>
@@ -2533,7 +2608,7 @@
       <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="10"/>
@@ -2567,10 +2642,10 @@
       <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2589,8 +2664,8 @@
         <v>11</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18">
+      <c r="D17" s="15"/>
+      <c r="E17" s="16">
         <v>2</v>
       </c>
       <c r="F17" s="12"/>
@@ -2607,7 +2682,7 @@
       <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="10">
@@ -2631,7 +2706,7 @@
       <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="12">
@@ -2655,7 +2730,7 @@
       <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="10"/>
@@ -2677,7 +2752,7 @@
       <c r="C21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="12"/>
@@ -2699,7 +2774,7 @@
       <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="10">
@@ -2765,7 +2840,7 @@
       <c r="C25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2785,7 +2860,7 @@
       <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2809,7 +2884,7 @@
       <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -2833,7 +2908,7 @@
       <c r="C28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -2857,7 +2932,7 @@
       <c r="C29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="15" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -2881,7 +2956,7 @@
       <c r="C30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -2999,7 +3074,7 @@
       <c r="G35" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8">
@@ -3043,7 +3118,7 @@
       <c r="G37" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8">
@@ -3091,7 +3166,7 @@
       <c r="G39" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8">
@@ -3135,7 +3210,7 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="19"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8">
@@ -3175,7 +3250,7 @@
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8">
@@ -3217,7 +3292,7 @@
       <c r="G45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8">
@@ -3229,7 +3304,7 @@
       <c r="C46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="13" t="s">
         <v>118</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -3259,7 +3334,7 @@
       <c r="G47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="19"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8">
@@ -3295,7 +3370,7 @@
       <c r="G49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8">
@@ -3343,7 +3418,7 @@
       <c r="G51" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="19"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8">
@@ -3379,7 +3454,7 @@
       <c r="C53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E53" s="12"/>
@@ -3389,7 +3464,7 @@
       <c r="G53" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="19"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8">
@@ -3401,10 +3476,10 @@
       <c r="C54" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F54" s="10"/>
@@ -3431,7 +3506,7 @@
       <c r="G55" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="19"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8">
@@ -3459,7 +3534,7 @@
       <c r="C57" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="15" t="s">
         <v>137</v>
       </c>
       <c r="E57" s="12" t="s">
@@ -3471,7 +3546,7 @@
       <c r="G57" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H57" s="19"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8">
@@ -3481,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="15"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="10">
         <v>4</v>
       </c>
@@ -3497,7 +3572,7 @@
         <v>141</v>
       </c>
       <c r="C59" s="12"/>
-      <c r="D59" s="17"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
         <v>142</v>
@@ -3505,7 +3580,7 @@
       <c r="G59" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H59" s="19"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="8">
@@ -3517,7 +3592,7 @@
       <c r="C60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="13" t="s">
         <v>144</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -3541,7 +3616,7 @@
       <c r="C61" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="15" t="s">
         <v>147</v>
       </c>
       <c r="E61" s="12" t="s">
@@ -3553,7 +3628,7 @@
       <c r="G61" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H61" s="19"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8">
@@ -3565,7 +3640,7 @@
       <c r="C62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="13" t="s">
         <v>151</v>
       </c>
       <c r="E62" s="10"/>
@@ -3587,7 +3662,7 @@
       <c r="C63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="15" t="s">
         <v>154</v>
       </c>
       <c r="E63" s="12"/>
@@ -3597,7 +3672,7 @@
       <c r="G63" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H63" s="19"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8">
@@ -3609,7 +3684,7 @@
       <c r="C64" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="13" t="s">
         <v>157</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -3629,13 +3704,13 @@
       <c r="C65" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="15" t="s">
         <v>158</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="19"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8">
@@ -3647,7 +3722,7 @@
       <c r="C66" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="13" t="s">
         <v>159</v>
       </c>
       <c r="E66" s="10"/>
@@ -3665,7 +3740,7 @@
       <c r="C67" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="15" t="s">
         <v>160</v>
       </c>
       <c r="E67" s="12"/>
@@ -3675,7 +3750,7 @@
       <c r="G67" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H67" s="19"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8">
@@ -3687,7 +3762,7 @@
       <c r="C68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="13" t="s">
         <v>163</v>
       </c>
       <c r="E68" s="10"/>
@@ -3705,13 +3780,13 @@
       <c r="C69" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="19"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8">
@@ -3723,7 +3798,7 @@
       <c r="C70" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="13" t="s">
         <v>165</v>
       </c>
       <c r="E70" s="10"/>
@@ -3745,7 +3820,7 @@
       <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E71" s="12"/>
@@ -3755,7 +3830,7 @@
       <c r="G71" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="19"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8">
@@ -3781,181 +3856,185 @@
       <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="12" t="s">
+      <c r="C73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="19"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8">
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10">
+        <v>4</v>
+      </c>
       <c r="F74" s="10" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12">
-        <v>4</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="19"/>
+      <c r="B75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H76" s="9"/>
+      <c r="B76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12">
+        <v>3</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12">
-        <v>5</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="19"/>
+      <c r="B77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="8">
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="H78" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="12">
+        <v>2</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="12" t="s">
+      <c r="B79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12" t="s">
+      <c r="E79" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="F79" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H79" s="19"/>
+      <c r="G79" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="10" t="s">
+      <c r="B80" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H80" s="9"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="11">
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>178</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="19"/>
+      <c r="F81" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8">
@@ -3965,790 +4044,1231 @@
         <v>19</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>179</v>
+        <v>15</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="9"/>
+      <c r="F82" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="11">
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>138</v>
+        <v>11</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12">
+        <v>4</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H83" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H85" s="19"/>
+      <c r="B85" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10">
+        <v>5</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8">
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>186</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H86" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H87" s="19"/>
+      <c r="B87" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8">
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H88" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="11">
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12">
-        <v>4</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="8">
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>193</v>
+      <c r="D90" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H90" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12">
-        <v>2</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H91" s="19"/>
+      <c r="B91" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>198</v>
+      <c r="B92" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>199</v>
+      <c r="D92" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H92" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12">
-        <v>2</v>
-      </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="19"/>
+      <c r="B93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="8">
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>202</v>
+        <v>20</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H94" s="9"/>
+        <v>198</v>
+      </c>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H95" s="19"/>
+      <c r="B95" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H96" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="H97" s="19"/>
+      <c r="B97" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="10">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="9"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H99" s="19"/>
+      <c r="B99" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" s="10">
+        <v>10001</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>208</v>
+      </c>
       <c r="E100" s="10">
-        <v>5</v>
+        <v>9789045678</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" s="22">
-        <v>3</v>
-      </c>
+      <c r="D101" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" s="10">
+        <v>21331</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" s="22"/>
+      <c r="B102" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="10">
+        <v>97989898982</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14">
-        <v>5</v>
-      </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="22"/>
+      <c r="B103" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="H104" s="20"/>
+      <c r="B104" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="24" t="s">
+      <c r="B105" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="H105" s="24"/>
+      <c r="D105" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20">
-        <v>20</v>
-      </c>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
+      <c r="B106" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="H107" s="24"/>
+      <c r="B107" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10">
+        <v>2</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="H108" s="20"/>
+      <c r="B108" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H109" s="24"/>
+      <c r="B109" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H110" s="20"/>
+      <c r="B110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12">
+        <v>4</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H111" s="24"/>
+      <c r="B111" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8">
         <v>111</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20">
-        <v>20</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="20"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12">
+        <v>5</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
+      <c r="B113" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8">
         <v>113</v>
       </c>
-      <c r="B114" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20">
-        <v>10</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="20"/>
+      <c r="B114" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="11">
         <v>114</v>
       </c>
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H115" s="24"/>
+      <c r="C115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="8">
         <v>115</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20">
-        <v>5</v>
-      </c>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
+      <c r="B116" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="11">
         <v>116</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H117" s="12"/>
+      <c r="C117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="8">
         <v>117</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10">
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10">
+        <v>3</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12">
         <v>4</v>
       </c>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
+      <c r="F124" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="17"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12">
+        <v>2</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12">
+        <v>2</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="11">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="11">
+        <v>130</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="10">
+        <v>4</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H134" s="17"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="11">
+        <v>134</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10">
+        <v>5</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H137" s="22"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10">
+        <v>5</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="22"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10">
+        <v>4</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B53 B54 B55 B56 B60 B63 B64 B65 B66 B67 B70 B83 B84 B93 B94 B95 B96 B97 B98 B14:B20 B21:B29 B31:B39 B40:B45 B49:B52 B57:B59 B61:B62 B68:B69 B71:B80 B81:B82 B85:B89 B90:B91 C2:C3">
-      <formula1>[7]DataList!#REF!</formula1>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B53 B54 B55 B56 B60 B63 B64 B65 B66 B67 B70 B118 B119 B128 B129 B130 B131 B132 B133 B134 B135 B14:B20 B21:B29 B31:B39 B40:B45 B49:B52 B57:B59 B61:B62 B68:B69 B71:B72 B108:B115 B116:B117 B120:B124 B125:B126 B139:B140 C2:C3">
+      <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C86 B95 C95 C136 B137 C137 B138 C138 B4:B12 B73:B94 B96:B107 C7:C9 C73:C74 C84:C85 C87:C90 C91:C94 C96:C101 C102:C107">
+      <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C101 B102 C102 B103 C103 B4:B12 C7:C9">
-      <formula1>[6]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C47 C55 C109 C26:C29 C31:C33">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C47 C55 C74 C26:C29 C31:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C71">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C71">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99 B100 B117:B118">
-      <formula1>[7]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101 B104:B116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B1048576">
       <formula1>DataList!$C$2:$C$129</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C119:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C141:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -4779,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4787,20 +5307,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -4811,20 +5331,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -4832,47 +5352,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -4882,12 +5402,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -4897,55 +5417,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4955,152 +5475,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5110,209 +5630,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5322,7 +5842,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
@@ -1157,10 +1157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1199,7 +1199,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1214,23 +1245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,24 +1266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,21 +1291,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1300,14 +1299,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,8 +1312,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,14 +1336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,37 +1369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,19 +1393,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,13 +1429,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,43 +1483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,13 +1519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,25 +1537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,17 +1622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1664,21 +1653,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1702,6 +1676,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1710,16 +1699,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1731,130 +1731,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2311,8 +2311,8 @@
   <sheetPr/>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A140"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1157,10 +1157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1198,6 +1198,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1206,7 +1289,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1221,66 +1304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1289,11 +1312,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1306,37 +1336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,7 +1369,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,7 +1495,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,67 +1537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,91 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,15 +1613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1633,6 +1624,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1652,17 +1673,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1672,30 +1687,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,16 +1701,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1731,130 +1731,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2311,8 +2311,8 @@
   <sheetPr/>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:H135"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3558,7 +3558,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="13"/>
       <c r="E58" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -4800,7 +4800,7 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
   <si>
     <t>Step No</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
   <si>
     <t>LLS_OP_PRESCRIPTION_NO</t>
@@ -1157,10 +1160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1200,21 +1203,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,7 +1241,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,61 +1272,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1312,8 +1301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,7 +1317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1336,7 +1325,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,19 +1372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,19 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,19 +1414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,13 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,13 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,43 +1468,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,19 +1516,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,32 +1616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1673,11 +1655,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,13 +1716,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1731,130 +1734,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2311,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3688,7 +3691,7 @@
         <v>157</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -3705,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -3723,7 +3726,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -3741,14 +3744,14 @@
         <v>20</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H67" s="17"/>
     </row>
@@ -3763,7 +3766,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -3781,7 +3784,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -3799,14 +3802,14 @@
         <v>20</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H70" s="9"/>
     </row>
@@ -3863,14 +3866,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H73" s="10"/>
     </row>
@@ -3905,12 +3908,12 @@
         <v>15</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H75" s="10"/>
     </row>
@@ -3941,11 +3944,11 @@
         <v>20</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>35</v>
@@ -3979,13 +3982,13 @@
         <v>20</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>104</v>
@@ -4003,7 +4006,7 @@
         <v>15</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
@@ -4025,14 +4028,14 @@
         <v>15</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -4047,14 +4050,14 @@
         <v>15</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H82" s="10"/>
     </row>
@@ -4089,7 +4092,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -4123,7 +4126,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
@@ -4145,7 +4148,7 @@
         <v>20</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
@@ -4167,14 +4170,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H88" s="10"/>
     </row>
@@ -4189,14 +4192,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H89" s="10"/>
     </row>
@@ -4211,14 +4214,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H90" s="10"/>
     </row>
@@ -4233,11 +4236,11 @@
         <v>20</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>35</v>
@@ -4255,11 +4258,11 @@
         <v>20</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>35</v>
@@ -4277,11 +4280,11 @@
         <v>20</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>35</v>
@@ -4299,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>148</v>
@@ -4308,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H94" s="10"/>
     </row>
@@ -4323,16 +4326,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H95" s="10"/>
     </row>
@@ -4347,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
@@ -4365,10 +4368,10 @@
         <v>20</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -4385,10 +4388,10 @@
         <v>20</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -4425,7 +4428,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E100" s="10">
         <v>9789045678</v>
@@ -4445,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E101" s="10">
         <v>21331</v>
@@ -4465,7 +4468,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E102" s="10">
         <v>97989898982</v>
@@ -4485,10 +4488,10 @@
         <v>15</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -4505,10 +4508,10 @@
         <v>15</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -4525,10 +4528,10 @@
         <v>15</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
@@ -4545,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
@@ -4579,7 +4582,7 @@
         <v>20</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -4639,16 +4642,16 @@
         <v>20</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H111" s="9"/>
     </row>
@@ -4679,10 +4682,10 @@
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H113" s="9"/>
     </row>
@@ -4697,14 +4700,14 @@
         <v>20</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H114" s="17"/>
     </row>
@@ -4719,14 +4722,14 @@
         <v>20</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H115" s="9"/>
     </row>
@@ -4741,7 +4744,7 @@
         <v>20</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -4759,7 +4762,7 @@
         <v>20</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -4777,16 +4780,16 @@
         <v>20</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H118" s="17"/>
     </row>
@@ -4817,10 +4820,10 @@
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H120" s="17"/>
     </row>
@@ -4835,16 +4838,16 @@
         <v>15</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H121" s="9"/>
     </row>
@@ -4859,16 +4862,16 @@
         <v>15</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H122" s="17"/>
     </row>
@@ -4925,14 +4928,14 @@
         <v>20</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H125" s="9"/>
     </row>
@@ -4949,10 +4952,10 @@
         <v>2</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H126" s="17"/>
     </row>
@@ -4961,20 +4964,20 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H127" s="9"/>
     </row>
@@ -5005,16 +5008,16 @@
         <v>15</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H129" s="9"/>
     </row>
@@ -5029,16 +5032,16 @@
         <v>20</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H130" s="17"/>
     </row>
@@ -5047,22 +5050,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H131" s="9"/>
     </row>
@@ -5077,14 +5080,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H132" s="17"/>
     </row>
@@ -5115,14 +5118,14 @@
         <v>20</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H134" s="17"/>
     </row>
@@ -5215,14 +5218,14 @@
         <v>20</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H139" s="12"/>
     </row>
@@ -5299,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5307,20 +5310,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5331,20 +5334,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5352,47 +5355,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5402,12 +5405,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5417,55 +5420,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5475,152 +5478,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5630,209 +5633,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5842,7 +5845,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
   <si>
     <t>Step No</t>
   </si>
@@ -721,45 +721,6 @@
   </si>
   <si>
     <t>LLS_T_SETTING</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>AGREE_SUBMIT_BUTTON</t>
@@ -1160,10 +1121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1201,11 +1162,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1217,9 +1191,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,25 +1213,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,40 +1230,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1324,10 +1260,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1338,8 +1275,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,7 +1333,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,175 +1507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,15 +1577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1640,17 +1592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,30 +1612,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,16 +1635,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1734,130 +1695,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2312,10 +2273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A118" sqref="$A118:$XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4770,346 +4731,340 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="8">
-        <v>117</v>
-      </c>
-      <c r="B118" s="12" t="s">
+      <c r="A118" s="11">
+        <v>122</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="8">
+        <v>123</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12">
+        <v>4</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="11">
+        <v>124</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H120" s="9"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="8">
+        <v>125</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12">
+        <v>2</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H121" s="17"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="11">
+        <v>126</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H122" s="9"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="8">
+        <v>127</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12">
+        <v>2</v>
+      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="17"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="11">
+        <v>128</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="8">
+        <v>129</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="11">
+        <v>130</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="8">
+        <v>131</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="11">
+        <v>132</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="10">
+        <v>4</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="9"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="8">
+        <v>133</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H129" s="17"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="11">
+        <v>134</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10">
+        <v>5</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="8">
+        <v>135</v>
+      </c>
+      <c r="B131" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="11">
-        <v>118</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10">
-        <v>5</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="9"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="8">
-        <v>119</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H120" s="17"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="11">
-        <v>120</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C121" s="10" t="s">
+      <c r="C131" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="8">
-        <v>121</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H122" s="17"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="11">
-        <v>122</v>
-      </c>
-      <c r="B123" s="10" t="s">
+      <c r="D131" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="11">
+        <v>136</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H123" s="9"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="8">
-        <v>123</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12">
-        <v>4</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="17"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="11">
-        <v>124</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="H125" s="9"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="8">
-        <v>125</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12">
-        <v>2</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="11">
-        <v>126</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H127" s="9"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="8">
-        <v>127</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12">
-        <v>2</v>
-      </c>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="17"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="11">
-        <v>128</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="H129" s="9"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="8">
-        <v>129</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="H130" s="17"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="11">
-        <v>130</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H131" s="9"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="8">
-        <v>131</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="H132" s="17"/>
+      <c r="C132" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="22"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="11">
-        <v>132</v>
+      <c r="A133" s="8">
+        <v>137</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="10"/>
-      <c r="D133" s="13"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="9"/>
+      <c r="H133" s="22"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="8">
-        <v>133</v>
+      <c r="A134" s="11">
+        <v>138</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>19</v>
@@ -5117,21 +5072,21 @@
       <c r="C134" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="12" t="s">
-        <v>268</v>
+      <c r="D134" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H134" s="17"/>
+        <v>260</v>
+      </c>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="11">
-        <v>134</v>
+      <c r="A135" s="8">
+        <v>139</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>11</v>
@@ -5139,121 +5094,21 @@
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
       <c r="E135" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
-      <c r="H135" s="9"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="8">
-        <v>135</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="11">
-        <v>136</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H137" s="22"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="8">
-        <v>137</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10">
-        <v>5</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="22"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="11">
-        <v>138</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="H139" s="12"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="8">
-        <v>139</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10">
-        <v>4</v>
-      </c>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
+      <c r="H135" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B53 B54 B55 B56 B60 B63 B64 B65 B66 B67 B70 B118 B119 B128 B129 B130 B131 B132 B133 B134 B135 B14:B20 B21:B29 B31:B39 B40:B45 B49:B52 B57:B59 B61:B62 B68:B69 B71:B72 B108:B115 B116:B117 B120:B124 B125:B126 B139:B140 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B53 B54 B55 B56 B60 B63 B64 B65 B66 B67 B70 B123 B124 B125 B126 B127 B128 B129 B130 B14:B20 B21:B29 B31:B39 B40:B45 B49:B52 B57:B59 B61:B62 B68:B69 B71:B72 B108:B115 B116:B117 B118:B119 B120:B121 B134:B135 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C86 B95 C95 C136 B137 C137 B138 C138 B4:B12 B73:B94 B96:B107 C7:C9 C73:C74 C84:C85 C87:C90 C91:C94 C96:C101 C102:C107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C86 B95 C95 C131 B132 C132 B133 C133 B4:B12 B73:B94 B96:B107 C7:C9 C73:C74 C84:C85 C87:C90 C91:C94 C96:C101 C102:C107">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
@@ -5265,13 +5120,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C71">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136:B1048576">
       <formula1>DataList!$C$2:$C$129</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C141:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -5302,7 +5157,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5310,20 +5165,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5334,20 +5189,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5355,47 +5210,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5405,12 +5260,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5420,55 +5275,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5478,152 +5333,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5633,209 +5488,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5845,7 +5700,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
@@ -1121,12 +1121,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,33 +1151,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,7 +1190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,9 +1204,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,29 +1249,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1269,44 +1281,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,19 +1316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,7 +1328,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,79 +1376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,13 +1418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,25 +1430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,12 +1454,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1568,26 +1551,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1618,20 +1584,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,25 +1646,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1695,134 +1667,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1831,21 +1803,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2275,8 +2234,8 @@
   <sheetPr/>
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A118" sqref="$A118:$XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2322,2252 +2281,2252 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
         <v>5</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>1000</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>10001</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <v>5</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="11">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10">
-        <v>5</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="11">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="11">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="11">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="11">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="17"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <v>9876543210</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="11">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="17"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="11">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12">
-        <v>4</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
+        <v>10</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="17"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="11">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="17"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10">
-        <v>4</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8">
+        <v>10</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="11">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="17"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="11">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="17"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="11">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="17"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="C54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="9"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="11">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="17"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10">
-        <v>4</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8">
+        <v>10</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="11">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="15" t="s">
+      <c r="C57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H57" s="17"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="10">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8">
         <v>5</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="11">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H59" s="17"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="C60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="11">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="15" t="s">
+      <c r="C61" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="11">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="C64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="9"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="11">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="17"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="9"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="11">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="C68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="9"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="11">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="17"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="13" t="s">
+      <c r="C70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10" t="s">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="11">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="17"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10">
-        <v>4</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8">
+        <v>10</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="11">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="18" t="s">
+      <c r="C73" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10" t="s">
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H73" s="10"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8">
         <v>4</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="11">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H75" s="10"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8">
         <v>3</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="10"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="11">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="18" t="s">
+      <c r="C77" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H77" s="10"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="12">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8">
         <v>2</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="10"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="11">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="13" t="s">
+      <c r="C79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H79" s="10"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12" t="s">
+      <c r="E80" s="8"/>
+      <c r="F80" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G80" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H80" s="10"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="11">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G81" s="12" t="s">
+      <c r="G81" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H81" s="10"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
+      <c r="E82" s="8"/>
+      <c r="F82" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="11">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9">
         <v>4</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="12" t="s">
+      <c r="G83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="18" t="s">
+      <c r="C84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="11">
+      <c r="A85" s="9">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9">
         <v>5</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="19" t="s">
+      <c r="C86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10" t="s">
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H86" s="10"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="11">
+      <c r="A87" s="9">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="19" t="s">
+      <c r="C87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H87" s="10"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="19" t="s">
+      <c r="C88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10" t="s">
+      <c r="E88" s="8"/>
+      <c r="F88" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H88" s="10"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="11">
+      <c r="A89" s="9">
         <v>88</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="19" t="s">
+      <c r="C89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H89" s="10"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="19" t="s">
+      <c r="C90" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10" t="s">
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H90" s="10"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="11">
+      <c r="A91" s="9">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="19" t="s">
+      <c r="C91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="10"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="19" t="s">
+      <c r="C92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="10"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="11">
+      <c r="A93" s="9">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="19" t="s">
+      <c r="C93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="s">
+      <c r="E93" s="9"/>
+      <c r="F93" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="10"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="18" t="s">
+      <c r="C94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="11">
+      <c r="A95" s="9">
         <v>94</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="19" t="s">
+      <c r="C95" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="11">
+      <c r="A97" s="9">
         <v>96</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="19" t="s">
+      <c r="C97" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="19" t="s">
+      <c r="C98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="11">
+      <c r="A99" s="9">
         <v>98</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="9">
         <v>10001</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="8">
         <v>9789045678</v>
       </c>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="11">
+      <c r="A101" s="9">
         <v>100</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="9">
         <v>21331</v>
       </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="8">
         <v>97989898982</v>
       </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="11">
+      <c r="A103" s="9">
         <v>102</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="11">
+      <c r="A105" s="9">
         <v>104</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="11">
+      <c r="A107" s="9">
         <v>106</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
         <v>2</v>
       </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="12" t="s">
+      <c r="C108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="17"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="11">
+      <c r="A109" s="9">
         <v>108</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H109" s="9"/>
@@ -4576,42 +4535,42 @@
       <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12">
-        <v>4</v>
-      </c>
-      <c r="F110" s="12" t="s">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8">
+        <v>10</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="12" t="s">
+      <c r="G110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="17"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="11">
+      <c r="A111" s="9">
         <v>110</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="10" t="s">
+      <c r="C111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="9" t="s">
         <v>221</v>
       </c>
       <c r="H111" s="9"/>
@@ -4620,32 +4579,32 @@
       <c r="A112" s="8">
         <v>111</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8">
         <v>5</v>
       </c>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="17"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="11">
+      <c r="A113" s="9">
         <v>112</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10" t="s">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G113" s="9" t="s">
         <v>223</v>
       </c>
       <c r="H113" s="9"/>
@@ -4654,42 +4613,42 @@
       <c r="A114" s="8">
         <v>113</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="12" t="s">
+      <c r="C114" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12" t="s">
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G114" s="12" t="s">
+      <c r="G114" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="H114" s="17"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="11">
+      <c r="A115" s="9">
         <v>114</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="10" t="s">
+      <c r="C115" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10" t="s">
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="9" t="s">
         <v>226</v>
       </c>
       <c r="H115" s="9"/>
@@ -4698,407 +4657,407 @@
       <c r="A116" s="8">
         <v>115</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="12" t="s">
+      <c r="C116" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="17"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="11">
+      <c r="A117" s="9">
         <v>116</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="13" t="s">
+      <c r="C117" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="11">
+      <c r="A118" s="8">
         <v>122</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10" t="s">
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H118" s="9"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="8">
+      <c r="A119" s="9">
         <v>123</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12">
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>10</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="8">
+        <v>124</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="9">
+        <v>125</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9">
+        <v>2</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="8">
+        <v>126</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="9">
+        <v>127</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9">
+        <v>2</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="8">
+        <v>128</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="9">
+        <v>129</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="8">
+        <v>130</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="9">
+        <v>131</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8">
+        <v>132</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8">
         <v>4</v>
       </c>
-      <c r="F119" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="17"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="11">
-        <v>124</v>
-      </c>
-      <c r="B120" s="10" t="s">
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="9">
+        <v>133</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H120" s="9"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="8">
-        <v>125</v>
-      </c>
-      <c r="B121" s="12" t="s">
+      <c r="C129" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="8">
+        <v>134</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12">
-        <v>2</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H121" s="17"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="11">
-        <v>126</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="8">
-        <v>127</v>
-      </c>
-      <c r="B123" s="12" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>5</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="9">
+        <v>135</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="8">
+        <v>136</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="9">
+        <v>137</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12">
-        <v>2</v>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="17"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="11">
-        <v>128</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H124" s="9"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="8">
-        <v>129</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H125" s="17"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="11">
-        <v>130</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H126" s="9"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="8">
-        <v>131</v>
-      </c>
-      <c r="B127" s="12" t="s">
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9">
+        <v>5</v>
+      </c>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8">
+        <v>138</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="H127" s="17"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="11">
-        <v>132</v>
-      </c>
-      <c r="B128" s="10" t="s">
+      <c r="C134" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="9">
+        <v>139</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="10">
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9">
         <v>4</v>
       </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="9"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="8">
-        <v>133</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="H129" s="17"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="11">
-        <v>134</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10">
-        <v>5</v>
-      </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="9"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="8">
-        <v>135</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="11">
-        <v>136</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" s="22"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="8">
-        <v>137</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10">
-        <v>5</v>
-      </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="22"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="11">
-        <v>138</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="H134" s="12"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="8">
-        <v>139</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10">
-        <v>4</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="9">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Create__Provider.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
   <si>
     <t>Step No</t>
   </si>
@@ -477,157 +477,160 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
+    <t>COBRA</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>LLS_OP_PRESCRIPTION_NO</t>
+  </si>
+  <si>
+    <t>LLS_PHARMACY_INS_COVER_NO</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>LLS_PREVIOUSLY_INSURED_NO</t>
+  </si>
+  <si>
+    <t>LLS_UNINSURED_PRIOR_NO</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>TRASH_PROVIDER_PAGE</t>
+  </si>
+  <si>
+    <t>Trash old provider</t>
+  </si>
+  <si>
+    <t>Trashed</t>
+  </si>
+  <si>
+    <t>SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Name tab</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>LLS_SUB_RELATION</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>LLS_OP_PRESCRIPTION_NO</t>
-  </si>
-  <si>
-    <t>LLS_PHARMACY_INS_COVER_NO</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>LLS_PREVIOUSLY_INSURED_NO</t>
-  </si>
-  <si>
-    <t>LLS_UNINSURED_PRIOR_NO</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>TRASH_PROVIDER_PAGE</t>
-  </si>
-  <si>
-    <t>Trash old provider</t>
-  </si>
-  <si>
-    <t>Trashed</t>
-  </si>
-  <si>
-    <t>SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Name tab</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>FACILITY/PRACTICE_NAME</t>
-  </si>
-  <si>
-    <t>Enter Facility name</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>CLICK_HERE_PROVIDER</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_LAST_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_NPI</t>
-  </si>
-  <si>
-    <t>Enter NPI</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FACILITY_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_TAXID</t>
-  </si>
-  <si>
-    <t>Enter TaxID</t>
-  </si>
-  <si>
-    <t>PAYMENT_TYPE_EFT</t>
-  </si>
-  <si>
-    <t>Click EFT YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PAYMENT_YES</t>
-  </si>
-  <si>
-    <t>Click Auth Payment YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PHYSICIAN_YES</t>
-  </si>
-  <si>
-    <t>Click Auth physician Yes</t>
-  </si>
-  <si>
-    <t>PROV_ADDRESS_TYPE</t>
   </si>
   <si>
     <t>selected</t>
@@ -1121,10 +1124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1151,24 +1154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,16 +1170,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1205,14 +1193,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,8 +1244,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,7 +1268,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,52 +1292,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,8 +1319,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -1334,7 +1337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,43 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,13 +1397,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,19 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,19 +1487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,48 +1505,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1551,9 +1560,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,6 +1574,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,11 +1602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1608,26 +1634,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,16 +1655,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1667,134 +1687,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1805,6 +1825,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2234,8 +2255,8 @@
   <sheetPr/>
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3542,7 +3563,7 @@
       <c r="D61" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>148</v>
       </c>
       <c r="F61" s="9" t="s">
@@ -4225,13 +4246,13 @@
         <v>198</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>93</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H94" s="8"/>
     </row>
@@ -4246,16 +4267,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H95" s="9"/>
     </row>
@@ -4270,7 +4291,7 @@
         <v>15</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -4288,10 +4309,10 @@
         <v>20</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -4308,10 +4329,10 @@
         <v>20</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -4348,7 +4369,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E100" s="8">
         <v>9789045678</v>
@@ -4368,7 +4389,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E101" s="9">
         <v>21331</v>
@@ -4388,7 +4409,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E102" s="8">
         <v>97989898982</v>
@@ -4408,10 +4429,10 @@
         <v>15</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -4428,10 +4449,10 @@
         <v>15</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -4448,10 +4469,10 @@
         <v>15</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
@@ -4468,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -4502,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -4562,16 +4583,16 @@
         <v>20</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H111" s="9"/>
     </row>
@@ -4602,10 +4623,10 @@
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H113" s="9"/>
     </row>
@@ -4620,14 +4641,14 @@
         <v>20</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H114" s="8"/>
     </row>
@@ -4642,14 +4663,14 @@
         <v>20</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H115" s="9"/>
     </row>
@@ -4664,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
@@ -4682,7 +4703,7 @@
         <v>20</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -4742,14 +4763,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H120" s="8"/>
     </row>
@@ -4766,10 +4787,10 @@
         <v>2</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H121" s="9"/>
     </row>
@@ -4778,20 +4799,20 @@
         <v>126</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H122" s="8"/>
     </row>
@@ -4822,16 +4843,16 @@
         <v>15</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H124" s="8"/>
     </row>
@@ -4846,16 +4867,16 @@
         <v>20</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H125" s="9"/>
     </row>
@@ -4864,22 +4885,22 @@
         <v>130</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -4894,14 +4915,14 @@
         <v>15</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H127" s="9"/>
     </row>
@@ -4932,14 +4953,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H129" s="9"/>
     </row>
@@ -5032,14 +5053,14 @@
         <v>20</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H134" s="8"/>
     </row>
@@ -5116,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5124,20 +5145,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5148,20 +5169,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5169,47 +5190,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5219,12 +5240,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5234,55 +5255,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5292,152 +5313,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5447,209 +5468,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5659,7 +5680,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
